--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -113,9 +113,6 @@
     <t>AnalyticalTable</t>
   </si>
   <si>
-    <t>CUSTOMER_ANALYSIS_UNIT_BE</t>
-  </si>
-  <si>
     <t>BE_SNDG</t>
   </si>
   <si>
@@ -764,12 +761,6 @@
     <t>BE_IND_219</t>
   </si>
   <si>
-    <t>TeradataSchema</t>
-  </si>
-  <si>
-    <t>TEWSA0D</t>
-  </si>
-  <si>
     <t>EXPOSURE</t>
   </si>
   <si>
@@ -786,16 +777,13 @@
   </si>
   <si>
     <t>LIB_EWS_BIB.ExternalInfo(Param1);</t>
-  </si>
-  <si>
-    <t>sourceTable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -837,12 +825,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Trebuchet MS"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -870,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -878,9 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +889,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1402,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,10 +1398,9 @@
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="30.28515625" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1434,10 +1412,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1454,54 +1430,42 @@
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" t="s">
         <v>243</v>
-      </c>
-      <c r="F3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1562,16 +1526,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1579,16 +1543,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1596,16 +1560,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,16 +1577,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,16 +1594,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,16 +1611,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,16 +1628,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,16 +1645,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,16 +1662,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,16 +1679,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>235</v>
-      </c>
-      <c r="C12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,16 +1696,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>225</v>
-      </c>
-      <c r="C13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,16 +1713,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,16 +1730,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>223</v>
-      </c>
-      <c r="C15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,16 +1747,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,16 +1764,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>229</v>
-      </c>
-      <c r="C17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,16 +1781,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,16 +1798,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +1815,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,16 +1832,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,16 +1849,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,16 +1866,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,16 +1883,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,16 +1900,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1970,16 +1934,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,16 +1951,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,16 +1968,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,16 +1985,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,16 +2002,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,16 +2019,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
         <v>227</v>
-      </c>
-      <c r="C32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,16 +2036,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,16 +2053,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,16 +2070,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,16 +2087,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,16 +2104,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,16 +2121,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,16 +2138,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,16 +2172,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,16 +2189,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,16 +2206,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,16 +2223,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,16 +2240,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2293,16 +2257,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2310,16 +2274,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,16 +2291,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,16 +2308,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,16 +2325,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2378,16 +2342,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,16 +2359,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2412,16 +2376,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,16 +2393,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,16 +2410,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2463,16 +2427,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2480,16 +2444,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2497,16 +2461,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,16 +2495,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,16 +2512,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,16 +2529,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,16 +2563,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2616,16 +2580,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2633,16 +2597,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,16 +2614,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,16 +2648,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,16 +2665,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,16 +2682,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,16 +2699,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,16 +2716,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,16 +2733,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,16 +2750,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,16 +2767,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,16 +2784,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2837,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,16 +2818,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,16 +2835,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,16 +2852,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,16 +2869,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2922,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,16 +2903,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,16 +2920,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2990,16 +2954,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,16 +2971,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,16 +2988,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3041,16 +3005,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,16 +3039,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3092,16 +3056,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,16 +3073,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3126,16 +3090,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,16 +3107,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
         <v>231</v>
-      </c>
-      <c r="C98" t="s">
-        <v>231</v>
-      </c>
-      <c r="E98" t="s">
-        <v>29</v>
-      </c>
-      <c r="F98" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,16 +3158,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3211,16 +3175,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,16 +3192,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,16 +3209,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
         <v>233</v>
-      </c>
-      <c r="C102" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,16 +3226,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,16 +3243,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3296,16 +3260,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,16 +3277,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3330,16 +3294,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
         <v>237</v>
-      </c>
-      <c r="C107" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3347,16 +3311,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380"/>
+    <workbookView xWindow="16635" yWindow="0" windowWidth="18315" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis_Unit" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="246">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -777,6 +777,12 @@
   </si>
   <si>
     <t>LIB_EWS_BIB.ExternalInfo(Param1);</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_17</t>
+  </si>
+  <si>
+    <t>BE_IND_17</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1477,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,16 +1753,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1770,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,16 +1787,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,16 +1804,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,16 +1821,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,16 +1838,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,16 +1855,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,16 +1872,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,33 +1889,33 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,16 +1923,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,16 +1940,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,16 +1957,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,16 +1974,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,16 +1991,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,16 +2008,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2025,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,16 +2042,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,16 +2059,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,16 +2076,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,16 +2093,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2110,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,16 +2127,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,16 +2144,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,16 +2161,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,16 +2178,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,16 +2195,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2206,16 +2212,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2223,16 +2229,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,16 +2246,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,16 +2263,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,16 +2280,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,16 +2297,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,16 +2314,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,16 +2331,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,16 +2348,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,16 +2365,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,16 +2382,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
         <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,16 +2399,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2410,16 +2416,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,16 +2433,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,16 +2450,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,16 +2467,16 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2478,16 +2484,16 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,16 +2501,16 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
         <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,16 +2518,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,16 +2535,16 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,16 +2552,16 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
         <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,16 +2569,16 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
         <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2580,16 +2586,16 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" t="s">
         <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2597,16 +2603,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
         <v>28</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,16 +2620,16 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,16 +2637,16 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2648,16 +2654,16 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,16 +2671,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,16 +2688,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,16 +2705,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" t="s">
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,16 +2722,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,16 +2739,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
         <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,16 +2756,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,16 +2773,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,16 +2790,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,16 +2807,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
         <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,16 +2824,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
         <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2841,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2852,16 +2858,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
         <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,16 +2875,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,16 +2892,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E83" t="s">
         <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,16 +2909,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
         <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,16 +2926,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
         <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,16 +2943,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
         <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,16 +2960,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
         <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,16 +2977,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
         <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2988,16 +2994,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
         <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,16 +3011,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
         <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3022,16 +3028,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,16 +3045,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
         <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,16 +3062,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E93" t="s">
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3073,16 +3079,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,16 +3096,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
         <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,16 +3113,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
         <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,16 +3130,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,16 +3147,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
         <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +3164,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E99" t="s">
         <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,16 +3181,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
         <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3192,16 +3198,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
         <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3209,16 +3215,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
         <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,16 +3232,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,16 +3249,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E104" t="s">
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,16 +3266,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
         <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,16 +3283,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E106" t="s">
         <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,16 +3300,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E107" t="s">
         <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,15 +3317,32 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
         <v>239</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>239</v>
       </c>
-      <c r="E108" t="s">
-        <v>28</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
         <v>238</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="258">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -783,6 +783,42 @@
   </si>
   <si>
     <t>BE_IND_17</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_220</t>
+  </si>
+  <si>
+    <t>BE_IND_220</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_221</t>
+  </si>
+  <si>
+    <t>BE_IND_221</t>
+  </si>
+  <si>
+    <t>BE_IND_225</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_225</t>
+  </si>
+  <si>
+    <t>BE_IND_222</t>
+  </si>
+  <si>
+    <t>BE_IND_223</t>
+  </si>
+  <si>
+    <t>BE_IND_224</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_222</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_223</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB_IND_224</t>
   </si>
 </sst>
 </file>
@@ -1483,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,15 +3370,117 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" t="s">
+        <v>248</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
         <v>239</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C115" t="s">
         <v>239</v>
       </c>
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
         <v>238</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/22_Inst_Analysis_Unit_BIB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -761,9 +761,6 @@
     <t>BE_IND_219</t>
   </si>
   <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIB_EXPOSURE</t>
   </si>
   <si>
@@ -819,12 +816,15 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB_IND_224</t>
+  </si>
+  <si>
+    <t>BE_EXPOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,7 +937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -985,7 +991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1028,7 +1040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1076,7 +1094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1124,7 +1148,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1498,16 +1528,16 @@
         <v>219</v>
       </c>
       <c r="E3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" t="s">
         <v>240</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>241</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>242</v>
-      </c>
-      <c r="I3" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1521,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,16 +1819,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>244</v>
-      </c>
-      <c r="C16" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,16 +3400,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
         <v>246</v>
-      </c>
-      <c r="C109" t="s">
-        <v>246</v>
-      </c>
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3387,16 +3417,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
         <v>248</v>
-      </c>
-      <c r="C110" t="s">
-        <v>248</v>
-      </c>
-      <c r="E110" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,16 +3434,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E111" t="s">
         <v>28</v>
       </c>
       <c r="F111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,16 +3451,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E112" t="s">
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,16 +3468,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s">
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,16 +3485,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114" t="s">
         <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,16 +3502,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" t="s">
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
